--- a/MICRO PIN.xlsx
+++ b/MICRO PIN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amira\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amira\OneDrive\Desktop\altioum project\project\SCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D033B313-843F-4822-A520-2DAA4A1F9E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857D0F25-8E62-4061-A4D2-7C92C2CD1AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8462DF9B-89FC-4C7B-9381-781686F787A6}"/>
   </bookViews>
@@ -453,9 +453,6 @@
     <t>PE14</t>
   </si>
   <si>
-    <t>PE15</t>
-  </si>
-  <si>
     <t>PB0</t>
   </si>
   <si>
@@ -610,6 +607,9 @@
   </si>
   <si>
     <t>VSSA</t>
+  </si>
+  <si>
+    <t>PE115</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -1155,7 +1155,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
@@ -1167,13 +1167,13 @@
         <v>34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>54</v>
@@ -1185,13 +1185,13 @@
         <v>31</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>93</v>
@@ -1211,13 +1211,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -1229,13 +1229,13 @@
         <v>35</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>73</v>
@@ -1249,7 +1249,7 @@
         <v>79</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>95</v>
@@ -1269,13 +1269,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>66</v>
@@ -1293,7 +1293,7 @@
         <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>74</v>
@@ -1323,13 +1323,13 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>67</v>
@@ -1347,7 +1347,7 @@
         <v>49</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>75</v>
@@ -1393,7 +1393,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>76</v>
@@ -1406,10 +1406,10 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>33</v>
@@ -1439,20 +1439,20 @@
         <v>51</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T7" s="4">
         <v>12</v>
@@ -1463,7 +1463,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>42</v>
@@ -1494,7 +1494,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T8" s="4">
         <v>13</v>
@@ -1505,7 +1505,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>55</v>
@@ -1532,7 +1532,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T9" s="4">
         <v>94</v>
@@ -1570,7 +1570,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T10" s="4">
         <v>14</v>
@@ -1581,13 +1581,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1604,7 +1604,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T11" s="4">
         <v>6</v>
@@ -1615,13 +1615,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1638,7 +1638,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T12" s="4">
         <v>50</v>
@@ -1649,13 +1649,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>97</v>
@@ -1674,7 +1674,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T13" s="4">
         <v>75</v>
@@ -1691,7 +1691,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>98</v>
@@ -1710,7 +1710,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T14" s="4">
         <v>0</v>
@@ -1744,7 +1744,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T15" s="4">
         <v>28</v>
@@ -1778,7 +1778,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T16" s="4">
         <v>11</v>
@@ -1789,14 +1789,14 @@
         <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1812,7 +1812,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T17" s="4">
         <v>22</v>
@@ -1823,14 +1823,14 @@
         <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1846,7 +1846,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T18" s="4">
         <v>21</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1880,7 +1880,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T19" s="4">
         <v>20</v>
@@ -1891,14 +1891,14 @@
         <v>48</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1914,7 +1914,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T20" s="4">
         <v>49</v>
@@ -1925,13 +1925,13 @@
         <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="5">
         <v>5</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>73</v>
       </c>
       <c r="F21" s="2"/>
@@ -1948,7 +1948,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T21" s="4">
         <v>74</v>
@@ -1959,7 +1959,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="5">
         <v>6</v>
@@ -1980,7 +1980,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T22" s="4">
         <v>99</v>
@@ -2012,7 +2012,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T23" s="4">
         <v>27</v>
@@ -2044,7 +2044,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T24" s="4">
         <v>10</v>
@@ -2055,7 +2055,7 @@
         <v>70</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="2">
         <v>9</v>
@@ -2076,7 +2076,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T25" s="4">
         <v>19</v>
@@ -2087,7 +2087,7 @@
         <v>71</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="5">
         <v>10</v>
